--- a/SourceDataTables/Fig4c.xlsx
+++ b/SourceDataTables/Fig4c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="31">
   <si>
     <t>Neuronal_subcluster</t>
   </si>
@@ -126,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -136,14 +136,42 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,7 +181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E183"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="true"/>
@@ -164,24 +192,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -198,7 +226,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -215,7 +243,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -232,7 +260,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -249,7 +277,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -266,7 +294,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -283,7 +311,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -300,7 +328,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -317,7 +345,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -334,7 +362,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -351,7 +379,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -368,7 +396,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -385,7 +413,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -402,7 +430,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -419,7 +447,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -436,7 +464,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -453,7 +481,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -470,7 +498,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -487,7 +515,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -504,7 +532,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -521,7 +549,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -538,7 +566,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -555,7 +583,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -572,7 +600,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -589,7 +617,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -606,7 +634,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -623,7 +651,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B28">
@@ -640,7 +668,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B29">
@@ -657,7 +685,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B30">
@@ -674,7 +702,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B31">
@@ -691,7 +719,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B32">
@@ -708,7 +736,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B33">
@@ -725,7 +753,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B34">
@@ -742,7 +770,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B35">
@@ -759,7 +787,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B36">
@@ -776,7 +804,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B37">
@@ -793,7 +821,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B38">
@@ -810,7 +838,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B39">
@@ -827,7 +855,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B40">
@@ -844,7 +872,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B41">
@@ -861,7 +889,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B42">
@@ -878,7 +906,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B43">
@@ -895,7 +923,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B44">
@@ -912,7 +940,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B45">
@@ -929,7 +957,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B46">
@@ -946,7 +974,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B47">
@@ -963,7 +991,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B48">
@@ -980,7 +1008,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B49">
@@ -997,7 +1025,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B50">
@@ -1014,7 +1042,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B51">
@@ -1031,7 +1059,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B52">
@@ -1048,7 +1076,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B53">
@@ -1065,7 +1093,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B54">
@@ -1082,7 +1110,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B55">
@@ -1099,7 +1127,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B56">
@@ -1116,7 +1144,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B57">
@@ -1133,7 +1161,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B58">
@@ -1150,7 +1178,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B59">
@@ -1167,7 +1195,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B60">
@@ -1184,7 +1212,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B61">
@@ -1201,7 +1229,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B62">
@@ -1218,7 +1246,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B63">
@@ -1235,7 +1263,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B64">
@@ -1252,7 +1280,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B65">
@@ -1269,7 +1297,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B66">
@@ -1286,7 +1314,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B67">
@@ -1303,7 +1331,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B68">
@@ -1320,7 +1348,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B69">
@@ -1337,7 +1365,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B70">
@@ -1354,7 +1382,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B71">
@@ -1371,7 +1399,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B72">
@@ -1388,7 +1416,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B73">
@@ -1405,7 +1433,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B74">
@@ -1422,7 +1450,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B75">
@@ -1439,7 +1467,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B76">
@@ -1456,7 +1484,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B77">
@@ -1473,7 +1501,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B78">
@@ -1490,7 +1518,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B79">
@@ -1503,6 +1531,1774 @@
         <v>0</v>
       </c>
       <c r="E79">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>-0.28779069767441856</v>
+      </c>
+      <c r="C80">
+        <v>1.442178980673763</v>
+      </c>
+      <c r="D80">
+        <v>4.3669907202828107</v>
+      </c>
+      <c r="E80">
+        <v>0.00014159808273998763</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>-0.2572430817201507</v>
+      </c>
+      <c r="C81">
+        <v>1.4168094012652699</v>
+      </c>
+      <c r="D81">
+        <v>3.3088017513360377</v>
+      </c>
+      <c r="E81">
+        <v>0.0034209948476781557</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>-0</v>
+      </c>
+      <c r="C82">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D82">
+        <v>2.9568957456755496</v>
+      </c>
+      <c r="E82">
+        <v>0.05053368127806053</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>-0</v>
+      </c>
+      <c r="C83">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D83">
+        <v>2.6565860215053769</v>
+      </c>
+      <c r="E83">
+        <v>0.50158873441296237</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>-0</v>
+      </c>
+      <c r="C84">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D84">
+        <v>2.2770737327188941</v>
+      </c>
+      <c r="E84">
+        <v>0.19631787532602066</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>-0</v>
+      </c>
+      <c r="C85">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D85">
+        <v>2.2669534050179214</v>
+      </c>
+      <c r="E85">
+        <v>0.11983629881433989</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>-0.2558139534883721</v>
+      </c>
+      <c r="C86">
+        <v>1.3791153879585916</v>
+      </c>
+      <c r="D86">
+        <v>2.4856945230459662</v>
+      </c>
+      <c r="E86">
+        <v>0.052040637809896505</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>-0</v>
+      </c>
+      <c r="C87">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D87">
+        <v>1.986232539443272</v>
+      </c>
+      <c r="E87">
+        <v>0.34812609403538008</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88">
+        <v>-0</v>
+      </c>
+      <c r="C88">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D88">
+        <v>1.7349133201667764</v>
+      </c>
+      <c r="E88">
+        <v>0.74244653046841602</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89">
+        <v>-0.43034123016735493</v>
+      </c>
+      <c r="C89">
+        <v>1.4257685933068474</v>
+      </c>
+      <c r="D89">
+        <v>2.0633677836934963</v>
+      </c>
+      <c r="E89">
+        <v>0.32952258073108892</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90">
+        <v>-0.42244506080648603</v>
+      </c>
+      <c r="C90">
+        <v>1.3901239733067368</v>
+      </c>
+      <c r="D90">
+        <v>1.1917395236659631</v>
+      </c>
+      <c r="E90">
+        <v>1.0114419369926069</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>-0</v>
+      </c>
+      <c r="C91">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92">
+        <v>-0.88550983899821112</v>
+      </c>
+      <c r="C92">
+        <v>1.2231518020895487</v>
+      </c>
+      <c r="D92">
+        <v>0.81741108354011582</v>
+      </c>
+      <c r="E92">
+        <v>1.2320063783988862</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93">
+        <v>-2.0930232558139532</v>
+      </c>
+      <c r="C93">
+        <v>0.6047579516707362</v>
+      </c>
+      <c r="D93">
+        <v>0.94456391875746726</v>
+      </c>
+      <c r="E93">
+        <v>1.2935078454940567</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94">
+        <v>-2.3023255813953485</v>
+      </c>
+      <c r="C94">
+        <v>0.58283890347584322</v>
+      </c>
+      <c r="D94">
+        <v>1.0367164961972202</v>
+      </c>
+      <c r="E94">
+        <v>1.3006847208434806</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95">
+        <v>-3.2125473228772305</v>
+      </c>
+      <c r="C95">
+        <v>0.25376161250001711</v>
+      </c>
+      <c r="D95">
+        <v>0.94456391875746726</v>
+      </c>
+      <c r="E95">
+        <v>1.2935078454940567</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96">
+        <v>-3.2890365448504979</v>
+      </c>
+      <c r="C96">
+        <v>0.38315080207878327</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97">
+        <v>-4.1112956810631225</v>
+      </c>
+      <c r="C97">
+        <v>0.052135833003126859</v>
+      </c>
+      <c r="D97">
+        <v>0.70842293906810039</v>
+      </c>
+      <c r="E97">
+        <v>1.2756930421226795</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98">
+        <v>-3.7588989084005697</v>
+      </c>
+      <c r="C98">
+        <v>0.11948359329059928</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99">
+        <v>-3.8372093023255816</v>
+      </c>
+      <c r="C99">
+        <v>0.60420342343651967</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100">
+        <v>-4.8470012239902074</v>
+      </c>
+      <c r="C100">
+        <v>0.017271537892073384</v>
+      </c>
+      <c r="D100">
+        <v>0.68557058619493594</v>
+      </c>
+      <c r="E100">
+        <v>1.2537825347210236</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101">
+        <v>-4.2833964305029744</v>
+      </c>
+      <c r="C101">
+        <v>0.088096295673547487</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102">
+        <v>-4.4561140285071268</v>
+      </c>
+      <c r="C102">
+        <v>0.13816531485038477</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103">
+        <v>-5.0363372093023262</v>
+      </c>
+      <c r="C103">
+        <v>0.0070469336778249932</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104">
+        <v>-6.5780730897009958</v>
+      </c>
+      <c r="C104">
+        <v>0.0060349931108745914</v>
+      </c>
+      <c r="D104">
+        <v>0.90436970944863881</v>
+      </c>
+      <c r="E104">
+        <v>1.2528897012385403</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105">
+        <v>-7.0070778564206275</v>
+      </c>
+      <c r="C105">
+        <v>0.0027819164538925726</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>-0.28779069767441856</v>
+      </c>
+      <c r="C106">
+        <v>1.442178980673763</v>
+      </c>
+      <c r="D106">
+        <v>4.3669907202828107</v>
+      </c>
+      <c r="E106">
+        <v>0.00014159808273998763</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>-0.2572430817201507</v>
+      </c>
+      <c r="C107">
+        <v>1.4168094012652699</v>
+      </c>
+      <c r="D107">
+        <v>3.3088017513360377</v>
+      </c>
+      <c r="E107">
+        <v>0.0034209948476781557</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>-0</v>
+      </c>
+      <c r="C108">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D108">
+        <v>2.9568957456755496</v>
+      </c>
+      <c r="E108">
+        <v>0.05053368127806053</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>-0</v>
+      </c>
+      <c r="C109">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D109">
+        <v>2.6565860215053769</v>
+      </c>
+      <c r="E109">
+        <v>0.50158873441296237</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>-0</v>
+      </c>
+      <c r="C110">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D110">
+        <v>2.2770737327188941</v>
+      </c>
+      <c r="E110">
+        <v>0.19631787532602066</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <v>-0</v>
+      </c>
+      <c r="C111">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D111">
+        <v>2.2669534050179214</v>
+      </c>
+      <c r="E111">
+        <v>0.11983629881433989</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>-0.2558139534883721</v>
+      </c>
+      <c r="C112">
+        <v>1.3791153879585916</v>
+      </c>
+      <c r="D112">
+        <v>2.4856945230459662</v>
+      </c>
+      <c r="E112">
+        <v>0.052040637809896505</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113">
+        <v>-0</v>
+      </c>
+      <c r="C113">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D113">
+        <v>1.986232539443272</v>
+      </c>
+      <c r="E113">
+        <v>0.34812609403538008</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114">
+        <v>-0</v>
+      </c>
+      <c r="C114">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D114">
+        <v>1.7349133201667764</v>
+      </c>
+      <c r="E114">
+        <v>0.74244653046841602</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115">
+        <v>-0.43034123016735493</v>
+      </c>
+      <c r="C115">
+        <v>1.4257685933068474</v>
+      </c>
+      <c r="D115">
+        <v>2.0633677836934963</v>
+      </c>
+      <c r="E115">
+        <v>0.32952258073108892</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116">
+        <v>-0.42244506080648603</v>
+      </c>
+      <c r="C116">
+        <v>1.3901239733067368</v>
+      </c>
+      <c r="D116">
+        <v>1.1917395236659631</v>
+      </c>
+      <c r="E116">
+        <v>1.0114419369926069</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117">
+        <v>-0</v>
+      </c>
+      <c r="C117">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118">
+        <v>-0.88550983899821112</v>
+      </c>
+      <c r="C118">
+        <v>1.2231518020895487</v>
+      </c>
+      <c r="D118">
+        <v>0.81741108354011582</v>
+      </c>
+      <c r="E118">
+        <v>1.2320063783988862</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119">
+        <v>-2.0930232558139532</v>
+      </c>
+      <c r="C119">
+        <v>0.6047579516707362</v>
+      </c>
+      <c r="D119">
+        <v>0.94456391875746726</v>
+      </c>
+      <c r="E119">
+        <v>1.2935078454940567</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120">
+        <v>-2.3023255813953485</v>
+      </c>
+      <c r="C120">
+        <v>0.58283890347584322</v>
+      </c>
+      <c r="D120">
+        <v>1.0367164961972202</v>
+      </c>
+      <c r="E120">
+        <v>1.3006847208434806</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121">
+        <v>-3.2125473228772305</v>
+      </c>
+      <c r="C121">
+        <v>0.25376161250001711</v>
+      </c>
+      <c r="D121">
+        <v>0.94456391875746726</v>
+      </c>
+      <c r="E121">
+        <v>1.2935078454940567</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122">
+        <v>-3.2890365448504979</v>
+      </c>
+      <c r="C122">
+        <v>0.38315080207878327</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123">
+        <v>-4.1112956810631225</v>
+      </c>
+      <c r="C123">
+        <v>0.052135833003126859</v>
+      </c>
+      <c r="D123">
+        <v>0.70842293906810039</v>
+      </c>
+      <c r="E123">
+        <v>1.2756930421226795</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124">
+        <v>-3.7588989084005697</v>
+      </c>
+      <c r="C124">
+        <v>0.11948359329059928</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125">
+        <v>-3.8372093023255816</v>
+      </c>
+      <c r="C125">
+        <v>0.60420342343651967</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126">
+        <v>-4.8470012239902074</v>
+      </c>
+      <c r="C126">
+        <v>0.017271537892073384</v>
+      </c>
+      <c r="D126">
+        <v>0.68557058619493594</v>
+      </c>
+      <c r="E126">
+        <v>1.2537825347210236</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127">
+        <v>-4.2833964305029744</v>
+      </c>
+      <c r="C127">
+        <v>0.088096295673547487</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128">
+        <v>-4.4561140285071268</v>
+      </c>
+      <c r="C128">
+        <v>0.13816531485038477</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129">
+        <v>-5.0363372093023262</v>
+      </c>
+      <c r="C129">
+        <v>0.0070469336778249932</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130">
+        <v>-6.5780730897009958</v>
+      </c>
+      <c r="C130">
+        <v>0.0060349931108745914</v>
+      </c>
+      <c r="D130">
+        <v>0.90436970944863881</v>
+      </c>
+      <c r="E130">
+        <v>1.2528897012385403</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131">
+        <v>-7.0070778564206275</v>
+      </c>
+      <c r="C131">
+        <v>0.0027819164538925726</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>-0.28779069767441856</v>
+      </c>
+      <c r="C132">
+        <v>1.442178980673763</v>
+      </c>
+      <c r="D132">
+        <v>4.3669907202828107</v>
+      </c>
+      <c r="E132">
+        <v>0.00014159808273998763</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133">
+        <v>-0.2572430817201507</v>
+      </c>
+      <c r="C133">
+        <v>1.4168094012652699</v>
+      </c>
+      <c r="D133">
+        <v>3.3088017513360377</v>
+      </c>
+      <c r="E133">
+        <v>0.0034209948476781557</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <v>-0</v>
+      </c>
+      <c r="C134">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D134">
+        <v>2.9568957456755496</v>
+      </c>
+      <c r="E134">
+        <v>0.05053368127806053</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135">
+        <v>-0</v>
+      </c>
+      <c r="C135">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D135">
+        <v>2.6565860215053769</v>
+      </c>
+      <c r="E135">
+        <v>0.50158873441296237</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>-0</v>
+      </c>
+      <c r="C136">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D136">
+        <v>2.2770737327188941</v>
+      </c>
+      <c r="E136">
+        <v>0.19631787532602066</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137">
+        <v>-0</v>
+      </c>
+      <c r="C137">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D137">
+        <v>2.2669534050179214</v>
+      </c>
+      <c r="E137">
+        <v>0.11983629881433989</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138">
+        <v>-0.2558139534883721</v>
+      </c>
+      <c r="C138">
+        <v>1.3791153879585916</v>
+      </c>
+      <c r="D138">
+        <v>2.4856945230459662</v>
+      </c>
+      <c r="E138">
+        <v>0.052040637809896505</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139">
+        <v>-0</v>
+      </c>
+      <c r="C139">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D139">
+        <v>1.986232539443272</v>
+      </c>
+      <c r="E139">
+        <v>0.34812609403538008</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140">
+        <v>-0</v>
+      </c>
+      <c r="C140">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D140">
+        <v>1.7349133201667764</v>
+      </c>
+      <c r="E140">
+        <v>0.74244653046841602</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141">
+        <v>-0.43034123016735493</v>
+      </c>
+      <c r="C141">
+        <v>1.4257685933068474</v>
+      </c>
+      <c r="D141">
+        <v>2.0633677836934963</v>
+      </c>
+      <c r="E141">
+        <v>0.32952258073108892</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142">
+        <v>-0.42244506080648603</v>
+      </c>
+      <c r="C142">
+        <v>1.3901239733067368</v>
+      </c>
+      <c r="D142">
+        <v>1.1917395236659631</v>
+      </c>
+      <c r="E142">
+        <v>1.0114419369926069</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143">
+        <v>-0</v>
+      </c>
+      <c r="C143">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144">
+        <v>-0.88550983899821112</v>
+      </c>
+      <c r="C144">
+        <v>1.2231518020895487</v>
+      </c>
+      <c r="D144">
+        <v>0.81741108354011582</v>
+      </c>
+      <c r="E144">
+        <v>1.2320063783988862</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145">
+        <v>-2.0930232558139532</v>
+      </c>
+      <c r="C145">
+        <v>0.6047579516707362</v>
+      </c>
+      <c r="D145">
+        <v>0.94456391875746726</v>
+      </c>
+      <c r="E145">
+        <v>1.2935078454940567</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146">
+        <v>-2.3023255813953485</v>
+      </c>
+      <c r="C146">
+        <v>0.58283890347584322</v>
+      </c>
+      <c r="D146">
+        <v>1.0367164961972202</v>
+      </c>
+      <c r="E146">
+        <v>1.3006847208434806</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147">
+        <v>-3.2125473228772305</v>
+      </c>
+      <c r="C147">
+        <v>0.25376161250001711</v>
+      </c>
+      <c r="D147">
+        <v>0.94456391875746726</v>
+      </c>
+      <c r="E147">
+        <v>1.2935078454940567</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148">
+        <v>-3.2890365448504979</v>
+      </c>
+      <c r="C148">
+        <v>0.38315080207878327</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149">
+        <v>-4.1112956810631225</v>
+      </c>
+      <c r="C149">
+        <v>0.052135833003126859</v>
+      </c>
+      <c r="D149">
+        <v>0.70842293906810039</v>
+      </c>
+      <c r="E149">
+        <v>1.2756930421226795</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150">
+        <v>-3.7588989084005697</v>
+      </c>
+      <c r="C150">
+        <v>0.11948359329059928</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151">
+        <v>-3.8372093023255816</v>
+      </c>
+      <c r="C151">
+        <v>0.60420342343651967</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152">
+        <v>-4.8470012239902074</v>
+      </c>
+      <c r="C152">
+        <v>0.017271537892073384</v>
+      </c>
+      <c r="D152">
+        <v>0.68557058619493594</v>
+      </c>
+      <c r="E152">
+        <v>1.2537825347210236</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153">
+        <v>-4.2833964305029744</v>
+      </c>
+      <c r="C153">
+        <v>0.088096295673547487</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B154">
+        <v>-4.4561140285071268</v>
+      </c>
+      <c r="C154">
+        <v>0.13816531485038477</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155">
+        <v>-5.0363372093023262</v>
+      </c>
+      <c r="C155">
+        <v>0.0070469336778249932</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B156">
+        <v>-6.5780730897009958</v>
+      </c>
+      <c r="C156">
+        <v>0.0060349931108745914</v>
+      </c>
+      <c r="D156">
+        <v>0.90436970944863881</v>
+      </c>
+      <c r="E156">
+        <v>1.2528897012385403</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B157">
+        <v>-7.0070778564206275</v>
+      </c>
+      <c r="C157">
+        <v>0.0027819164538925726</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>-0.28779069767441856</v>
+      </c>
+      <c r="C158">
+        <v>1.442178980673763</v>
+      </c>
+      <c r="D158">
+        <v>4.3669907202828107</v>
+      </c>
+      <c r="E158">
+        <v>0.00014159808273998763</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>-0.2572430817201507</v>
+      </c>
+      <c r="C159">
+        <v>1.4168094012652699</v>
+      </c>
+      <c r="D159">
+        <v>3.3088017513360377</v>
+      </c>
+      <c r="E159">
+        <v>0.0034209948476781557</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>-0</v>
+      </c>
+      <c r="C160">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D160">
+        <v>2.9568957456755496</v>
+      </c>
+      <c r="E160">
+        <v>0.05053368127806053</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161">
+        <v>-0</v>
+      </c>
+      <c r="C161">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D161">
+        <v>2.6565860215053769</v>
+      </c>
+      <c r="E161">
+        <v>0.50158873441296237</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162">
+        <v>-0</v>
+      </c>
+      <c r="C162">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D162">
+        <v>2.2770737327188941</v>
+      </c>
+      <c r="E162">
+        <v>0.19631787532602066</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>-0</v>
+      </c>
+      <c r="C163">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D163">
+        <v>2.2669534050179214</v>
+      </c>
+      <c r="E163">
+        <v>0.11983629881433989</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164">
+        <v>-0.2558139534883721</v>
+      </c>
+      <c r="C164">
+        <v>1.3791153879585916</v>
+      </c>
+      <c r="D164">
+        <v>2.4856945230459662</v>
+      </c>
+      <c r="E164">
+        <v>0.052040637809896505</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165">
+        <v>-0</v>
+      </c>
+      <c r="C165">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D165">
+        <v>1.986232539443272</v>
+      </c>
+      <c r="E165">
+        <v>0.34812609403538008</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166">
+        <v>-0</v>
+      </c>
+      <c r="C166">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D166">
+        <v>1.7349133201667764</v>
+      </c>
+      <c r="E166">
+        <v>0.74244653046841602</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167">
+        <v>-0.43034123016735493</v>
+      </c>
+      <c r="C167">
+        <v>1.4257685933068474</v>
+      </c>
+      <c r="D167">
+        <v>2.0633677836934963</v>
+      </c>
+      <c r="E167">
+        <v>0.32952258073108892</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168">
+        <v>-0.42244506080648603</v>
+      </c>
+      <c r="C168">
+        <v>1.3901239733067368</v>
+      </c>
+      <c r="D168">
+        <v>1.1917395236659631</v>
+      </c>
+      <c r="E168">
+        <v>1.0114419369926069</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169">
+        <v>-0</v>
+      </c>
+      <c r="C169">
+        <v>1.1663867865027144</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170">
+        <v>-0.88550983899821112</v>
+      </c>
+      <c r="C170">
+        <v>1.2231518020895487</v>
+      </c>
+      <c r="D170">
+        <v>0.81741108354011582</v>
+      </c>
+      <c r="E170">
+        <v>1.2320063783988862</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171">
+        <v>-2.0930232558139532</v>
+      </c>
+      <c r="C171">
+        <v>0.6047579516707362</v>
+      </c>
+      <c r="D171">
+        <v>0.94456391875746726</v>
+      </c>
+      <c r="E171">
+        <v>1.2935078454940567</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172">
+        <v>-2.3023255813953485</v>
+      </c>
+      <c r="C172">
+        <v>0.58283890347584322</v>
+      </c>
+      <c r="D172">
+        <v>1.0367164961972202</v>
+      </c>
+      <c r="E172">
+        <v>1.3006847208434806</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173">
+        <v>-3.2125473228772305</v>
+      </c>
+      <c r="C173">
+        <v>0.25376161250001711</v>
+      </c>
+      <c r="D173">
+        <v>0.94456391875746726</v>
+      </c>
+      <c r="E173">
+        <v>1.2935078454940567</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174">
+        <v>-3.2890365448504979</v>
+      </c>
+      <c r="C174">
+        <v>0.38315080207878327</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175">
+        <v>-4.1112956810631225</v>
+      </c>
+      <c r="C175">
+        <v>0.052135833003126859</v>
+      </c>
+      <c r="D175">
+        <v>0.70842293906810039</v>
+      </c>
+      <c r="E175">
+        <v>1.2756930421226795</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176">
+        <v>-3.7588989084005697</v>
+      </c>
+      <c r="C176">
+        <v>0.11948359329059928</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B177">
+        <v>-3.8372093023255816</v>
+      </c>
+      <c r="C177">
+        <v>0.60420342343651967</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178">
+        <v>-4.8470012239902074</v>
+      </c>
+      <c r="C178">
+        <v>0.017271537892073384</v>
+      </c>
+      <c r="D178">
+        <v>0.68557058619493594</v>
+      </c>
+      <c r="E178">
+        <v>1.2537825347210236</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179">
+        <v>-4.2833964305029744</v>
+      </c>
+      <c r="C179">
+        <v>0.088096295673547487</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180">
+        <v>-4.4561140285071268</v>
+      </c>
+      <c r="C180">
+        <v>0.13816531485038477</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B181">
+        <v>-5.0363372093023262</v>
+      </c>
+      <c r="C181">
+        <v>0.0070469336778249932</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>1.1663867865027144</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B182">
+        <v>-6.5780730897009958</v>
+      </c>
+      <c r="C182">
+        <v>0.0060349931108745914</v>
+      </c>
+      <c r="D182">
+        <v>0.90436970944863881</v>
+      </c>
+      <c r="E182">
+        <v>1.2528897012385403</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B183">
+        <v>-7.0070778564206275</v>
+      </c>
+      <c r="C183">
+        <v>0.0027819164538925726</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
         <v>1.1663867865027144</v>
       </c>
     </row>

--- a/SourceDataTables/Fig4c.xlsx
+++ b/SourceDataTables/Fig4c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="31">
   <si>
     <t>Neuronal_subcluster</t>
   </si>
@@ -126,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -150,11 +150,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -172,6 +176,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,24 +200,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -226,7 +234,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -243,7 +251,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -260,7 +268,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -277,7 +285,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -294,7 +302,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -311,7 +319,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -328,7 +336,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -345,7 +353,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -362,7 +370,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -379,7 +387,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -396,7 +404,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -413,7 +421,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -430,7 +438,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -447,7 +455,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -464,7 +472,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -481,7 +489,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -498,7 +506,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -515,7 +523,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -532,7 +540,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -549,7 +557,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -566,7 +574,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -583,7 +591,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -600,7 +608,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -617,7 +625,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -634,7 +642,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B27">
